--- a/outputs/CORVALLIS4.xlsx
+++ b/outputs/CORVALLIS4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Want to help?" section explicitly mentions "Please read the Contribute.md" document, which would likely lead Abi to think of it as a step toward finding information about documentation contributions due to the clear instruction. Additionally, Abi's comprehensive information processing style would prompt them to consider this step as it provides pertinent information relevant to making a documentation contribution.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize this as a step toward making a documentation contribution.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides clear sections and headings, such as "Want to help?" which directs Abi to "Please read the Contribute.md." This clear instruction aligns with Abi's motivations to accomplish tasks and their comprehensive information processing style, making it straightforward for them to know what to do next. The page is structured in a way that guides Abi towards the next step in finding information about documentation contributions.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize this as a step toward making a documentation contribution. The page is straightforward and provides the necessary guidance for Abi to know what to do next.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: Even if Abi searches for documentation, it is not clear if the search will lead them to the specific documentation they need. The current page does not provide a search function or direct navigation to documentation contributions. Abi might not feel confident that they are making progress toward their goal because the page lacks explicit guidance or confirmation that they are on the right track. Additionally, without comprehensive instructions or an obvious path, Abi's information processing style could lead to confusion and uncertainty about whether they have found all the necessary information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page does provide a link to the "Contribute.md" file, it does not explicitly state that this file contains information about documentation contributions. Abi, who has low computer self-efficacy and prefers comprehensive information, might not be confident that she is making progress toward her goal without more explicit guidance. Additionally, the page contains a lot of information, which might be overwhelming and make it difficult for Abi to determine if she has found all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style, Computer Self-Efficacy
-Why: While the page lists multiple `.md` files, it does not explicitly state that contributing to the first `.md` file is a required step toward making a documentation contribution. Abi may not intuitively understand that they should edit the first `.md` file without specific instructions, given their preference for comprehensive information and process-oriented learning. Additionally, Abi's lower computer self-efficacy might make them hesitant to proceed without clearer guidance. Thus, they may not consider this action as a step toward achieving their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page lists several .md files, it does not explicitly indicate that making a documentation contribution to the first .md file is a step toward achieving the overall use case. Abi, who has low computer self-efficacy and prefers comprehensive information, might not be confident that this is the correct step without more explicit guidance. Additionally, the page contains a lot of information, which might make it difficult for Abi to determine the correct course of action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: The page does not provide explicit instructions or context indicating that clicking on the first `.md` file is the necessary action to make a documentation contribution. Abi, who prefers process-oriented learning with clear guidance, may not confidently know that this is the correct step. Additionally, Abi's lower computer self-efficacy might make them hesitant to click on something without clear instructions, fearing they could make a mistake or cause an unintended action. The page does not offer sufficient cues or reassurance that this action aligns with their goal.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit guidance or instructions indicating that clicking on the first .md file is the correct action to make a documentation contribution. Abi, who has low computer self-efficacy and prefers process-oriented learning, might not feel confident in taking this action without clear instructions. The lack of explicit direction could make Abi hesitant to click on the file, fearing it might not lead to the desired outcome.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style, Computer Self-Efficacy
-Why: After clicking on the first `.md` file, Abi is directed to the "Deploying.md" file, which contains detailed technical instructions related to deployment rather than documentation contributions. This content does not align with Abi's goal of making a documentation contribution and may lead to confusion. Abi might not feel they are making progress toward their goal because the information is not relevant to documentation contributions. Given Abi's preference for clear guidance and comprehensive information, the technical jargon and deployment instructions could overwhelm and discourage them, further exacerbating their lower computer self-efficacy. Thus, Abi will not know that they are making progress toward their goal and will not get the information they need.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the first .md file, Abi lands on a page titled "Flosscoach Deployment," which contains detailed instructions for deployment rather than documentation contributions. This page does not provide information about making documentation contributions, and Abi, who prefers comprehensive information and has low computer self-efficacy, will not know that she is making progress toward her goal. The content is technical and specific to deployment, which might confuse Abi and make her unsure if she is on the right path.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: The page does not provide explicit instructions that clicking the "Edit" button is the correct action to make a documentation contribution. Given Abi's lower computer self-efficacy, they might hesitate to click the "Edit" button without clear guidance, fearing they might make an error. Abi's preference for process-oriented learning means they look for step-by-step instructions, which are not provided here. The "Edit" button is present, but without explicit instructions or context, Abi may not confidently know that this is the right next step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or guidance indicating that clicking the "Edit" button is the correct action to make a documentation contribution. Abi, who has low computer self-efficacy and prefers process-oriented learning, might not feel confident in taking this action without clear instructions. The "Edit" button is present, but without context or guidance, Abi might be hesitant to click it, fearing it might not lead to the desired outcome or might cause unintended changes.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Learning Style
-Why: After clicking the "Edit" button, Abi lands on a new page that appears to be a repository homepage with various files and a different set of information. This page does not provide explicit feedback or confirmation that Abi's action was correct or that they are making progress toward their goal of contributing to the first `.md` file. The new page introduces a lot of new information and options, which could be overwhelming and confusing for Abi, impacting their confidence and understanding of whether they are on the right path. Given Abi's preference for clear, process-oriented instructions and comprehensive information, the lack of direct guidance makes it difficult for them to know if they are progressing correctly. Additionally, the page does not seem to focus on the specific `.md` file Abi intended to edit, further contributing to the confusion.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Edit" button, Abi lands on a different repository page that does not provide clear feedback or information related to making a documentation contribution to the first .md file. The new page contains information about a different project (JabRef Bibliography Management) and does not indicate that Abi is making progress toward her goal. Abi, who prefers comprehensive information and has low computer self-efficacy, will likely be confused and unsure if she is on the right path, as the content is unrelated to her original task.</t>
         </is>
       </c>
     </row>
